--- a/BarBot Projektfortschritt.xlsx
+++ b/BarBot Projektfortschritt.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Github\BarBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="13380" windowHeight="7968"/>
+    <workbookView xWindow="98" yWindow="105" windowWidth="13380" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
-  <si>
-    <t>Funktionselement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Stand</t>
   </si>
   <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>Fertig</t>
   </si>
   <si>
@@ -87,9 +86,6 @@
     <t>Nein</t>
   </si>
   <si>
-    <t>Ice-Maker</t>
-  </si>
-  <si>
     <t>Gekauft</t>
   </si>
   <si>
@@ -112,12 +108,33 @@
   </si>
   <si>
     <t>User-Interface</t>
+  </si>
+  <si>
+    <t>Madeleine?</t>
+  </si>
+  <si>
+    <t>Drehmechanismus</t>
+  </si>
+  <si>
+    <t>Ice-Maker/Ice-Crusher</t>
+  </si>
+  <si>
+    <t>Stepperansteuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bearbeitung</t>
+  </si>
+  <si>
+    <t>CAD/KiCad</t>
+  </si>
+  <si>
+    <t>Im Bau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +282,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,15 +304,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,12 +317,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,12 +342,387 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619072</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533392</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185790</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Freihand 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFB47C2-141B-4A7B-BE42-0A02814FF5D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3109860" y="3686040"/>
+            <a:ext cx="2886120" cy="862200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Freihand 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFB47C2-141B-4A7B-BE42-0A02814FF5D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3105541" y="3681720"/>
+              <a:ext cx="2894759" cy="870840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>642832</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>833452</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19155</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Freihand 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D87489-E852-456F-A366-AD9E42F0EC8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6105420" y="3852720"/>
+            <a:ext cx="190620" cy="328860"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Freihand 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D87489-E852-456F-A366-AD9E42F0EC8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6101104" y="3848402"/>
+              <a:ext cx="199252" cy="337495"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962152</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43095</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Freihand 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9871B097-D0B1-45CD-B222-B4D7ED9DBF43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6010200" y="3867120"/>
+            <a:ext cx="414540" cy="338400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Freihand 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9871B097-D0B1-45CD-B222-B4D7ED9DBF43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6005882" y="3862805"/>
+              <a:ext cx="423176" cy="347031"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-04-03T08:41:43.200"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{4E69C46F-88D6-41D7-ABB7-7E607736C806}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="8531,10832 16469,9934 16676,11761 8738,12659"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{1F5EC524-D8EC-4280-ACE8-007105937300}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="8531,10832 16469,9934 16676,11761 8738,12659" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{2FC03464-13EA-4D27-BCA7-473DBB3A12A3}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="8531,10832 16469,9934 16676,11761 8738,12659"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{D2F5300D-5BE2-4656-B0CE-6D61B9DBD7A4}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="8531,10832 12104,10428 12311,12254 8738,12659"/>
+              </emma:interpretation>
+              <emma:one-of disjunction-type="recognition" id="oneOf0">
+                <emma:interpretation id="interp0" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Hatte</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp1" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Hallo</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp2" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Halle</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp3" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Halte</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp4" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Haller</emma:literal>
+                </emma:interpretation>
+              </emma:one-of>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">9565 11814 6656,'0'-26'2528,"13"13"-1344,-13-14-736,14 27 640,-14 0-256,13 0-96,-13 0-64,13 0-32,1 0-352,-14 0 96,0 0 64,0 0-160,0 0-33,-14 0 1,1 0 64,-27-13-96,13 13 32,-25 0-160,-1 0 0,-26 0 96,-1 13 32,-12-13-96,12 0-32,1 0-32,0 0 32,13 13-64,-14-13 64,27 14-64,14-14 64,-1 0-64,13 0-32,40 0-2304,14 0-2751</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-822">8758 10809 9984,'14'0'3776,"-14"13"-2048,0-13-1728,0 0 672,0 0-448,0 0-65,-14 13-95,14 1 32,0 12-64,0 1 128,0 26 32,14-1 64,-2 15 64,2 12-96,-1 14 32,0-1 32,1 14 160,-1 0-64,0 0 96,-13 13-192,14-13-96,-2-14-96,-12 27-96,14-26 32,-14-1 32,13 1-96,-13-27 0,13 0-384,1-13-160,-14-13-1024,12-14-479,2-12-2433,-1-28-1472,0-25 2880</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-313">9354 10994 6400,'40'13'2464,"-40"0"-1344,13-13-1312,-13 0 448,13 0-800,-13 0-192,0 0 320,0 0 128,14 0 192,-14 0 896,0 0 512,12 0 320,-12 0 128,0 0-480,0 0-128,0-13-481,0 13-159,-12 0-288,-2 0-96,14 0-64,-13 13-64,13 14 96,-13 0 64,13 25 288,0-12 160,0 13-96,0 13 32,13 13-128,-13-13 0,13 14-96,-13 0-32,14 12-32,-2-13 64,-12 14-96,27-14 32,-14 0-160,1 1 0,-1 0-32,0-28-64,0 1 32,0-13-32,-13-1-96,14-25 64,-1 12-544,-13-12-160,13-14-928,1 0-352,-14 0-1215,12-27-513,-12 0-96</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1176">10359 11828 11264,'27'-13'4224,"-27"13"-2305,0-27-2303,0 27 576,-14-13-224,-12 0 0,0 0-128,-1 0 32,-13-1 64,1 14-192,-1 0 33,-13 14 95,13-1 128,-13 13 32,13 14 64,14 0 223,-14-1 97,27 14-64,13-13 32,0 13-32,27-14 96,-14 1-32,26-13 0,15-1-160,-15-13 0,28 1-96,-1-28 0,-14 1-192,2-13 32,-15-14-64,-12 0 0,-1-26 0,-13 13-64,-13-13 0,-13 13 0,13 13 0,-26 1 96,-1 12-64,14 27-32,-1 14 96,14 12 0,14 14 288,-1 13 224,0 0 192,13 13 64,14 0 160,-13-13 96,-1 0-416,1-14-160,13 1-256,-14-27-64,14 0-192,-14-13 0,0-13-32,14-26 64,-26-14-128,12-14 64,-13-25 64,-13-14 96,0 0 64,-13-26 32,-1 12-64,-12 1 32,0 0-64,12 13-32,1 14 32,0 26 32,0 0-32,13 26 64,0 13-64,0 14-32,0 13-64,13 27-32,0 26 64,14 13 0,-1 13-64,27 27 64,0 13 96,0 0 96,0 14 0,-1-14 0,2 0 32,-14-13 96,12-14-128,-12-12-96,-14-27-32,1-14 32,0-12-32,-1-27-32,-13-27 32,-13-12-32,13-41-96,-26-12 64,13-14-32,-13-13 0,-13-14 0,12 14 0,-12-13 128,-1 13 32,0 13-128,1 13 32,0 1 0,12 39 64,-12 0-96,26 39 0,-13 1 96,13 40-32,13 12-32,1 14 32,-2 27 32,15 25-32,12-12 64,1 26 0,0 0 96,0 1-32,26-1 64,-13-13-128,0 0-64,-1-14-160,2-13 0,-14-26-576,-1-13-192,-12-13-1152,-1-14-448,0-26-1151,-26-27-513,14 0-224</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1505">11827 11722 7424,'40'53'2816,"-27"-14"-1536,14 1-2688,-14-26-128,14 12-1312,12 0-384</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1692">12211 12145 7552,'14'27'2816,"-14"-27"-1536,13 0-288,-13 0 1024,13 0-480,-13-14-161,0 1-447,13 0-192,-13-27-416,0 14-64,13-27-32,-13 0-192,-13-13 0,13 0-32,-13-1 0,-13 1-96,12 0 64,-12 27 32,-27-1 64,13 0-32,-13 27-32,0 13-64,0 13 32,1 27 96,-1 0 32,13-1 320,13 14 96,14 13 384,13-13 224,0 0-224,13 0-64,14-13-288,13-14-64,-1 14-288,27-27-128,1 14-1024,-1-27-480,0-14-2944,13-12-1215,-26-1 351</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{CEE26C39-841E-481F-AD08-5456E59B41F8}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="13606,10489 16495,10162 16671,11720 13782,12047"/>
+              </emma:interpretation>
+              <emma:one-of disjunction-type="recognition" id="oneOf1">
+                <emma:interpretation id="interp5" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Feti</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp6" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Feli</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp7" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Eeli</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp8" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Fehi</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp9" emma:lang="de-CH" emma:confidence="0">
+                  <emma:literal>Fels</emma:literal>
+                </emma:interpretation>
+              </emma:one-of>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3123">14711 11140 12928,'40'26'4831,"-27"-12"-2623,-13-14-2144,0 0 896,0 0-448,0 0 32,-13-14-192,0 1 32,-14-14-224,-13 1-96,-13 13-32,-13-14-32,-13 15 64,-14 12-96,14-14 0,-14 28 32,-12-14 64,12 12 32,14 2 32,12-1-64,1 0-64,27-13-192,-1 14-128,13-14-1376,14 12-544,13-12-1983,40-12-769,0 12 1024</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2810">14831 10638 11136,'39'12'4224,"-12"-12"-2305,12 0-1887,-39 0 800,0-12-384,0 12 64,-13-14-160,0 1-32,0 0-192,-14-1 192,1 1 96,-1 0-64,-25 13-32,-1 0-128,-14 13 32,-12 0 64,-14 1 64,1 12 192,12-12 96,-12-2-128,-14 15 32,13-14-256,14 1-32,13-2-192,0-12-64,13 14-160,13-1 32,14 0-1152,-1-13-480,27 0-1088,0 0-383,13 0-1953</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2448">13851 10652 13056,'13'-13'4927,"-13"13"-2687,0-14-2464,0 14 768,0 0-512,0 0 0,0 0-384,0 14-96,0-1 224,0 26-32,0 28 32,0-1 192,14 13 64,-1 14 512,13 13 192,1-1 480,-1 1 192,-13 0-320,14-13-160,-14-1-480,14-12-192,-14-14-256,0 0 0,0-13-576,1-13-160,-14-14-704,13 0-288,0-39-640,-13 0-191,13-40 31,-13 0 32,0-26-640,13-14-896,-13-26 1600</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3660">15003 11524 11904,'0'13'4480,"0"-39"-2433,0 26-1951,0-14 832,13 1-64,-13 13 192,14-13-288,-2-14-64,2 14-416,-1 0 192,14 0 64,-15 0-224,15-1-96,-14-12-224,1-1 0,-14-12-64,13 12 0,-26-12 64,-1-1 0,-12 0-160,-27 14 32,-13-1 0,-13 14 64,13 13-128,-1 13 64,1 1 128,27 12 64,-1 0 64,13 14 0,27 0 416,0 13 256,27 0-192,13-14-32,12 1-32,28 0-64,-1-14-96,14 14 0,13-14-224,12-12-32,-12 12-64,14-26-64,-14 13-256,-14-26-160,-12 13-704,12-26-256,-13-1-1600,-12-26-640,-1 0-1791</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3993">15836 10294 11648,'-13'-26'4288,"13"26"-2305,0-14-1183,0 14 1152,0 0-576,0-13-128,0 13-544,0 0-192,0 13-384,0 13-64,0 1-64,0 26 0,13 0-96,-13 26 0,14 1 128,-1 12 96,0 14 256,0 0 128,0 0 32,1-14 32,12 1-224,0 0-128,1-1-128,0-12 0,-1-1 0,14-26 32,-14 13-288,0-13-64,1-14-928,0-12-448,-15 0-1856,15-41-832,-14-12-1471</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4494">16246 10268 18431,'26'0'6848,"-26"0"-3712,0 0-3648,0 0 1088,0 0-704,0-14 32,-13 14-1664,13 0-736,0-13 1280,0 13-2944,0 13-1023,27 1 127</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4290">16391 10995 17535,'39'0'6592,"-25"0"-3584,-14 13-3488,13 1 1024,-13-14-576,13 26 0,-13 1-544,14 12-256,-1 1 448,0 13-32,0 13 32,0 0 96,14-13 96,0 13-768,-1-26-288,0 0-1056,-12-14-480,-14-26-2527</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-04-03T08:41:48.027"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17490 10783 11136,'0'-27'4224,"0"27"-2305,-13-13-1951,13 0 800,0-1-384,-13 1 32,0 13-128,-1 13 64,-12-13-192,13 27 128,-14-1 32,-13 14 32,1 13 96,-1 0 64,0 26-32,14 1 32,-14-1 96,1 14-224,12-14 32,1-12-192,-1-15 32,14 1-160,0-13-64,0-13-512,-1-1-224,1-13-1568,13 0-608,13-13-2879</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-04-03T08:41:48.339"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17741 11642 15616,'66'26'5887,"-40"-12"-3199,-13-14-2848,-13 0 992,0 0-608,0-14-128,-26-12-160,-1-1-32,-12 1 64,-14-27-64,0 0 32,-13-26 0,-40 13 0,13-14 0,1 0 0,-1 14 256,14 0 128,-14 0 192,27 14 64,-13-2-96,13 14-32,26 14-256,0 0-64,0 0-64,40 26-672,14-14-320,12 28-2208,1-14-928,39 0-2175</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -369,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,9 +797,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,6 +849,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,87 +1045,89 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="15" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="15" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -704,91 +1135,91 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -796,19 +1227,19 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -816,41 +1247,41 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -858,31 +1289,31 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15" t="s">
-        <v>22</v>
+    <row r="13" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -892,38 +1323,52 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -932,6 +1377,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -941,7 +1387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -953,7 +1399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BarBot Projektfortschritt.xlsx
+++ b/BarBot Projektfortschritt.xlsx
@@ -347,378 +347,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619072</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533392</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185790</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="11" name="Freihand 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFB47C2-141B-4A7B-BE42-0A02814FF5D1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3109860" y="3686040"/>
-            <a:ext cx="2886120" cy="862200"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Freihand 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFB47C2-141B-4A7B-BE42-0A02814FF5D1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3105541" y="3681720"/>
-              <a:ext cx="2894759" cy="870840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>642832</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>833452</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19155</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Freihand 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D87489-E852-456F-A366-AD9E42F0EC8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6105420" y="3852720"/>
-            <a:ext cx="190620" cy="328860"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Freihand 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D87489-E852-456F-A366-AD9E42F0EC8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6101104" y="3848402"/>
-              <a:ext cx="199252" cy="337495"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>547612</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104745</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>962152</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43095</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="20" name="Freihand 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9871B097-D0B1-45CD-B222-B4D7ED9DBF43}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6010200" y="3867120"/>
-            <a:ext cx="414540" cy="338400"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="20" name="Freihand 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9871B097-D0B1-45CD-B222-B4D7ED9DBF43}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6005882" y="3862805"/>
-              <a:ext cx="423176" cy="347031"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2017-04-03T08:41:43.200"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{4E69C46F-88D6-41D7-ABB7-7E607736C806}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="8531,10832 16469,9934 16676,11761 8738,12659"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:traceGroup>
-      <inkml:annotationXML>
-        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-          <emma:interpretation id="{1F5EC524-D8EC-4280-ACE8-007105937300}" emma:medium="tactile" emma:mode="ink">
-            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="8531,10832 16469,9934 16676,11761 8738,12659" alignmentLevel="1"/>
-          </emma:interpretation>
-        </emma:emma>
-      </inkml:annotationXML>
-      <inkml:traceGroup>
-        <inkml:annotationXML>
-          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-            <emma:interpretation id="{2FC03464-13EA-4D27-BCA7-473DBB3A12A3}" emma:medium="tactile" emma:mode="ink">
-              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="8531,10832 16469,9934 16676,11761 8738,12659"/>
-            </emma:interpretation>
-          </emma:emma>
-        </inkml:annotationXML>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{D2F5300D-5BE2-4656-B0CE-6D61B9DBD7A4}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="8531,10832 12104,10428 12311,12254 8738,12659"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf0">
-                <emma:interpretation id="interp0" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Hatte</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp1" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Hallo</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp2" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Halle</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp3" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Halte</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp4" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Haller</emma:literal>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">9565 11814 6656,'0'-26'2528,"13"13"-1344,-13-14-736,14 27 640,-14 0-256,13 0-96,-13 0-64,13 0-32,1 0-352,-14 0 96,0 0 64,0 0-160,0 0-33,-14 0 1,1 0 64,-27-13-96,13 13 32,-25 0-160,-1 0 0,-26 0 96,-1 13 32,-12-13-96,12 0-32,1 0-32,0 0 32,13 13-64,-14-13 64,27 14-64,14-14 64,-1 0-64,13 0-32,40 0-2304,14 0-2751</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-822">8758 10809 9984,'14'0'3776,"-14"13"-2048,0-13-1728,0 0 672,0 0-448,0 0-65,-14 13-95,14 1 32,0 12-64,0 1 128,0 26 32,14-1 64,-2 15 64,2 12-96,-1 14 32,0-1 32,1 14 160,-1 0-64,0 0 96,-13 13-192,14-13-96,-2-14-96,-12 27-96,14-26 32,-14-1 32,13 1-96,-13-27 0,13 0-384,1-13-160,-14-13-1024,12-14-479,2-12-2433,-1-28-1472,0-25 2880</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-313">9354 10994 6400,'40'13'2464,"-40"0"-1344,13-13-1312,-13 0 448,13 0-800,-13 0-192,0 0 320,0 0 128,14 0 192,-14 0 896,0 0 512,12 0 320,-12 0 128,0 0-480,0 0-128,0-13-481,0 13-159,-12 0-288,-2 0-96,14 0-64,-13 13-64,13 14 96,-13 0 64,13 25 288,0-12 160,0 13-96,0 13 32,13 13-128,-13-13 0,13 14-96,-13 0-32,14 12-32,-2-13 64,-12 14-96,27-14 32,-14 0-160,1 1 0,-1 0-32,0-28-64,0 1 32,0-13-32,-13-1-96,14-25 64,-1 12-544,-13-12-160,13-14-928,1 0-352,-14 0-1215,12-27-513,-12 0-96</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1176">10359 11828 11264,'27'-13'4224,"-27"13"-2305,0-27-2303,0 27 576,-14-13-224,-12 0 0,0 0-128,-1 0 32,-13-1 64,1 14-192,-1 0 33,-13 14 95,13-1 128,-13 13 32,13 14 64,14 0 223,-14-1 97,27 14-64,13-13 32,0 13-32,27-14 96,-14 1-32,26-13 0,15-1-160,-15-13 0,28 1-96,-1-28 0,-14 1-192,2-13 32,-15-14-64,-12 0 0,-1-26 0,-13 13-64,-13-13 0,-13 13 0,13 13 0,-26 1 96,-1 12-64,14 27-32,-1 14 96,14 12 0,14 14 288,-1 13 224,0 0 192,13 13 64,14 0 160,-13-13 96,-1 0-416,1-14-160,13 1-256,-14-27-64,14 0-192,-14-13 0,0-13-32,14-26 64,-26-14-128,12-14 64,-13-25 64,-13-14 96,0 0 64,-13-26 32,-1 12-64,-12 1 32,0 0-64,12 13-32,1 14 32,0 26 32,0 0-32,13 26 64,0 13-64,0 14-32,0 13-64,13 27-32,0 26 64,14 13 0,-1 13-64,27 27 64,0 13 96,0 0 96,0 14 0,-1-14 0,2 0 32,-14-13 96,12-14-128,-12-12-96,-14-27-32,1-14 32,0-12-32,-1-27-32,-13-27 32,-13-12-32,13-41-96,-26-12 64,13-14-32,-13-13 0,-13-14 0,12 14 0,-12-13 128,-1 13 32,0 13-128,1 13 32,0 1 0,12 39 64,-12 0-96,26 39 0,-13 1 96,13 40-32,13 12-32,1 14 32,-2 27 32,15 25-32,12-12 64,1 26 0,0 0 96,0 1-32,26-1 64,-13-13-128,0 0-64,-1-14-160,2-13 0,-14-26-576,-1-13-192,-12-13-1152,-1-14-448,0-26-1151,-26-27-513,14 0-224</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1505">11827 11722 7424,'40'53'2816,"-27"-14"-1536,14 1-2688,-14-26-128,14 12-1312,12 0-384</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1692">12211 12145 7552,'14'27'2816,"-14"-27"-1536,13 0-288,-13 0 1024,13 0-480,-13-14-161,0 1-447,13 0-192,-13-27-416,0 14-64,13-27-32,-13 0-192,-13-13 0,13 0-32,-13-1 0,-13 1-96,12 0 64,-12 27 32,-27-1 64,13 0-32,-13 27-32,0 13-64,0 13 32,1 27 96,-1 0 32,13-1 320,13 14 96,14 13 384,13-13 224,0 0-224,13 0-64,14-13-288,13-14-64,-1 14-288,27-27-128,1 14-1024,-1-27-480,0-14-2944,13-12-1215,-26-1 351</inkml:trace>
-        </inkml:traceGroup>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{CEE26C39-841E-481F-AD08-5456E59B41F8}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="13606,10489 16495,10162 16671,11720 13782,12047"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf1">
-                <emma:interpretation id="interp5" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Feti</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp6" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Feli</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp7" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Eeli</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp8" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Fehi</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp9" emma:lang="de-CH" emma:confidence="0">
-                  <emma:literal>Fels</emma:literal>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3123">14711 11140 12928,'40'26'4831,"-27"-12"-2623,-13-14-2144,0 0 896,0 0-448,0 0 32,-13-14-192,0 1 32,-14-14-224,-13 1-96,-13 13-32,-13-14-32,-13 15 64,-14 12-96,14-14 0,-14 28 32,-12-14 64,12 12 32,14 2 32,12-1-64,1 0-64,27-13-192,-1 14-128,13-14-1376,14 12-544,13-12-1983,40-12-769,0 12 1024</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2810">14831 10638 11136,'39'12'4224,"-12"-12"-2305,12 0-1887,-39 0 800,0-12-384,0 12 64,-13-14-160,0 1-32,0 0-192,-14-1 192,1 1 96,-1 0-64,-25 13-32,-1 0-128,-14 13 32,-12 0 64,-14 1 64,1 12 192,12-12 96,-12-2-128,-14 15 32,13-14-256,14 1-32,13-2-192,0-12-64,13 14-160,13-1 32,14 0-1152,-1-13-480,27 0-1088,0 0-383,13 0-1953</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2448">13851 10652 13056,'13'-13'4927,"-13"13"-2687,0-14-2464,0 14 768,0 0-512,0 0 0,0 0-384,0 14-96,0-1 224,0 26-32,0 28 32,0-1 192,14 13 64,-1 14 512,13 13 192,1-1 480,-1 1 192,-13 0-320,14-13-160,-14-1-480,14-12-192,-14-14-256,0 0 0,0-13-576,1-13-160,-14-14-704,13 0-288,0-39-640,-13 0-191,13-40 31,-13 0 32,0-26-640,13-14-896,-13-26 1600</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3660">15003 11524 11904,'0'13'4480,"0"-39"-2433,0 26-1951,0-14 832,13 1-64,-13 13 192,14-13-288,-2-14-64,2 14-416,-1 0 192,14 0 64,-15 0-224,15-1-96,-14-12-224,1-1 0,-14-12-64,13 12 0,-26-12 64,-1-1 0,-12 0-160,-27 14 32,-13-1 0,-13 14 64,13 13-128,-1 13 64,1 1 128,27 12 64,-1 0 64,13 14 0,27 0 416,0 13 256,27 0-192,13-14-32,12 1-32,28 0-64,-1-14-96,14 14 0,13-14-224,12-12-32,-12 12-64,14-26-64,-14 13-256,-14-26-160,-12 13-704,12-26-256,-13-1-1600,-12-26-640,-1 0-1791</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3993">15836 10294 11648,'-13'-26'4288,"13"26"-2305,0-14-1183,0 14 1152,0 0-576,0-13-128,0 13-544,0 0-192,0 13-384,0 13-64,0 1-64,0 26 0,13 0-96,-13 26 0,14 1 128,-1 12 96,0 14 256,0 0 128,0 0 32,1-14 32,12 1-224,0 0-128,1-1-128,0-12 0,-1-1 0,14-26 32,-14 13-288,0-13-64,1-14-928,0-12-448,-15 0-1856,15-41-832,-14-12-1471</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4494">16246 10268 18431,'26'0'6848,"-26"0"-3712,0 0-3648,0 0 1088,0 0-704,0-14 32,-13 14-1664,13 0-736,0-13 1280,0 13-2944,0 13-1023,27 1 127</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4290">16391 10995 17535,'39'0'6592,"-25"0"-3584,-14 13-3488,13 1 1024,-13-14-576,13 26 0,-13 1-544,14 12-256,-1 1 448,0 13-32,0 13 32,0 0 96,14-13 96,0 13-768,-1-26-288,0 0-1056,-12-14-480,-14-26-2527</inkml:trace>
-        </inkml:traceGroup>
-      </inkml:traceGroup>
-    </inkml:traceGroup>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2017-04-03T08:41:48.027"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">17490 10783 11136,'0'-27'4224,"0"27"-2305,-13-13-1951,13 0 800,0-1-384,-13 1 32,0 13-128,-1 13 64,-12-13-192,13 27 128,-14-1 32,-13 14 32,1 13 96,-1 0 64,0 26-32,14 1 32,-14-1 96,1 14-224,12-14 32,1-12-192,-1-15 32,14 1-160,0-13-64,0-13-512,-1-1-224,1-13-1568,13 0-608,13-13-2879</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2017-04-03T08:41:48.339"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">17741 11642 15616,'66'26'5887,"-40"-12"-3199,-13-14-2848,-13 0 992,0 0-608,0-14-128,-26-12-160,-1-1-32,-12 1 64,-14-27-64,0 0 32,-13-26 0,-40 13 0,13-14 0,1 0 0,-1 14 256,14 0 128,-14 0 192,27 14 64,-13-2-96,13 14-32,26 14-256,0 0-64,0 0-64,40 26-672,14-14-320,12 28-2208,1-14-928,39 0-2175</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,7 +673,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1377,7 +1005,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
